--- a/15 3/ExactModelData.xlsx
+++ b/15 3/ExactModelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\15 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1230E455-61DC-4689-8660-3D058CB87048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14FD13B-23ED-42DD-88F8-DFC716D182F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -405,49 +405,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.700717950150221</c:v>
+                  <c:v>-91.028403840801303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.626185361844861</c:v>
+                  <c:v>-36.72119394118539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.819493957041175</c:v>
+                  <c:v>-92.428417512185646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.746040722904809</c:v>
+                  <c:v>-77.846650178270977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-68.236688407917086</c:v>
+                  <c:v>-82.744297833850425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-16.112023212369067</c:v>
+                  <c:v>-28.180551945845124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-96.291272552136974</c:v>
+                  <c:v>-79.591449948221651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-25.677078044989642</c:v>
+                  <c:v>82.048433662824834</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.592651155639146</c:v>
+                  <c:v>26.593201568779904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.310018431700954</c:v>
+                  <c:v>-75.316559135223059</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.423558020707631</c:v>
+                  <c:v>42.348228857146097</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7577221662926092</c:v>
+                  <c:v>84.809378298380906</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.961460677078279</c:v>
+                  <c:v>-31.129487852839858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.730148709082499</c:v>
+                  <c:v>37.131570514260801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.097835869594832</c:v>
+                  <c:v>98.219799688904274</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -465,49 +465,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27.012260871571257</c:v>
+                  <c:v>-74.652315324734872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-98.656363542873564</c:v>
+                  <c:v>76.795926365940048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-47.612535360411059</c:v>
+                  <c:v>36.84432159939108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-79.715149478747207</c:v>
+                  <c:v>-36.562696688661546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.850822330313179</c:v>
+                  <c:v>13.615978217526504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.36640805501861</c:v>
+                  <c:v>-4.386459135213812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.060396616203732</c:v>
+                  <c:v>94.358052981263384</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21.311851453156478</c:v>
+                  <c:v>-67.381693510533339</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.458756551499945</c:v>
+                  <c:v>32.747134137676468</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-99.153594012776594</c:v>
+                  <c:v>-18.344489728516649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.735096357770985</c:v>
+                  <c:v>-61.992335270192186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.429866091049746</c:v>
+                  <c:v>-12.133468497232727</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-13.822078491601346</c:v>
+                  <c:v>-53.443098208303127</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.853213276638229</c:v>
+                  <c:v>77.927679755306727</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.783800673566788</c:v>
+                  <c:v>13.384251460582703</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1576,7 +1576,7 @@
   </sheetPr>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1664,19 +1664,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>8 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.71839580816244286</v>
+        <v>0.80851053618434832</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>7.4167488890476925</v>
+        <v>11.537740833776413</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L17" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>9.8890650171812838E-2</v>
+        <v>0.11153666949347707</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.2259704321395513</v>
+        <v>1.4234603546823392</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>14.747948892202491</v>
+        <v>10.72846757855358</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1731,11 +1731,11 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2259704321395513</v>
+        <v>1.4234603546823392</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>14.747948892202491</v>
+        <v>10.72846757855358</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
@@ -1746,11 +1746,11 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H17" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>24.700717950150221</v>
+        <v>-91.028403840801303</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-27.012260871571257</v>
+        <v>-74.652315324734872</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I17" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
@@ -1758,15 +1758,15 @@
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <f ca="1">IF(J3=0,24,J3+1)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>0.15205255789602307</v>
+        <v>6.4952552455186247E-2</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1779,11 +1779,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.0838184597114342</v>
+        <v>0.80851053618434832</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>12.912141776920956</v>
+        <v>11.537740833776413</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1795,34 +1795,34 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2259704321395513</v>
+        <v>0.80851053618434832</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>14.747948892202491</v>
+        <v>11.537740833776413</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>59.626185361844861</v>
+        <v>-36.72119394118539</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-98.656363542873564</v>
+        <v>76.795926365940048</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J17" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>6.0999419737770871E-2</v>
+        <v>0.16588952620286093</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1847,11 +1847,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>0.71839580816244286</v>
+        <v>1.3389636063697756</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>7.4167488890476925</v>
+        <v>13.381402769160273</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1863,11 +1863,11 @@
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>36.819493957041175</v>
+        <v>-92.428417512185646</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>-47.612535360411059</v>
+        <v>36.84432159939108</v>
       </c>
       <c r="I5">
         <f ca="1"/>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>4.722557363889221E-2</v>
+        <v>7.5899904105514615E-2</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1900,11 +1900,11 @@
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>42.746040722904809</v>
+        <v>-77.846650178270977</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-79.715149478747207</v>
+        <v>-36.562696688661546</v>
       </c>
       <c r="I6">
         <f ca="1"/>
@@ -1912,15 +1912,15 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>7.0224916169293189E-2</v>
+        <v>5.9438250137858833E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1937,27 +1937,27 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>-68.236688407917086</v>
+        <v>-82.744297833850425</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>29.850822330313179</v>
+        <v>13.615978217526504</v>
       </c>
       <c r="I7">
         <f ca="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" ca="1" si="2">IF(J7=0,24,J7+1)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>5.9431508786542186E-2</v>
+        <v>4.0054533482515031E-2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -1973,15 +1973,15 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-16.112023212369067</v>
+        <v>-28.180551945845124</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>46.36640805501861</v>
+        <v>-4.386459135213812</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>0.15101322752730242</v>
+        <v>4.2261730105265377E-2</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2008,15 +2008,15 @@
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>-96.291272552136974</v>
+        <v>-79.591449948221651</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>41.060396616203732</v>
+        <v>94.358052981263384</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>0.13327896355817276</v>
+        <v>6.5311642743900167E-2</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2043,15 +2043,15 @@
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>-25.677078044989642</v>
+        <v>82.048433662824834</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>-21.311851453156478</v>
+        <v>-67.381693510533339</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>6.226139474325168E-2</v>
+        <v>6.316177059548761E-2</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2078,15 +2078,15 @@
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>34.592651155639146</v>
+        <v>26.593201568779904</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>90.458756551499945</v>
+        <v>32.747134137676468</v>
       </c>
       <c r="I11">
         <f ca="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>0.14392300688716883</v>
+        <v>9.3351021295837722E-2</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2113,11 +2113,11 @@
       </c>
       <c r="G12">
         <f ca="1"/>
-        <v>25.310018431700954</v>
+        <v>-75.316559135223059</v>
       </c>
       <c r="H12">
         <f ca="1"/>
-        <v>-99.153594012776594</v>
+        <v>-18.344489728516649</v>
       </c>
       <c r="I12">
         <f ca="1"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="L12">
         <f ca="1"/>
-        <v>4.4628945068377779E-2</v>
+        <v>0.13732519661585663</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="G13">
         <f ca="1"/>
-        <v>24.423558020707631</v>
+        <v>42.348228857146097</v>
       </c>
       <c r="H13">
         <f ca="1"/>
-        <v>49.735096357770985</v>
+        <v>-61.992335270192186</v>
       </c>
       <c r="I13">
         <f ca="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L13">
         <f ca="1"/>
-        <v>0.14272919990227853</v>
+        <v>9.8871999875158684E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2177,15 +2177,15 @@
       </c>
       <c r="G14">
         <f ca="1"/>
-        <v>2.7577221662926092</v>
+        <v>84.809378298380906</v>
       </c>
       <c r="H14">
         <f ca="1"/>
-        <v>21.429866091049746</v>
+        <v>-12.133468497232727</v>
       </c>
       <c r="I14">
         <f ca="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
@@ -2197,14 +2197,14 @@
       </c>
       <c r="L14">
         <f ca="1"/>
-        <v>7.3649170806127262E-2</v>
+        <v>5.7247871478431051E-2</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2213,11 +2213,11 @@
       </c>
       <c r="G15">
         <f ca="1"/>
-        <v>37.961460677078279</v>
+        <v>-31.129487852839858</v>
       </c>
       <c r="H15">
         <f ca="1"/>
-        <v>-13.822078491601346</v>
+        <v>-53.443098208303127</v>
       </c>
       <c r="I15">
         <f ca="1"/>
@@ -2233,14 +2233,14 @@
       </c>
       <c r="L15">
         <f ca="1"/>
-        <v>0.12384900896734233</v>
+        <v>5.4573788538540446E-2</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2249,15 +2249,15 @@
       </c>
       <c r="G16">
         <f ca="1"/>
-        <v>62.730148709082499</v>
+        <v>37.131570514260801</v>
       </c>
       <c r="H16">
         <f ca="1"/>
-        <v>11.853213276638229</v>
+        <v>77.927679755306727</v>
       </c>
       <c r="I16">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
@@ -2269,11 +2269,11 @@
       </c>
       <c r="L16">
         <f ca="1"/>
-        <v>0.13512467514811927</v>
+        <v>5.169263453596884E-2</v>
       </c>
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.67741935483870963</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.25">
@@ -2282,15 +2282,15 @@
       </c>
       <c r="G17">
         <f ca="1"/>
-        <v>24.097835869594832</v>
+        <v>98.219799688904274</v>
       </c>
       <c r="H17">
         <f ca="1"/>
-        <v>11.783800673566788</v>
+        <v>13.384251460582703</v>
       </c>
       <c r="I17">
         <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="L17">
         <f ca="1"/>
-        <v>0.16504028874282964</v>
+        <v>0.10284141072304337</v>
       </c>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,63 +2356,63 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>36.603110587034713</v>
+        <v>117.72484227701329</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>115.27514930941844</v>
+        <v>85.123794504645033</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>60.188276754688573</v>
+        <v>99.501338674041278</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>90.452910698900382</v>
+        <v>86.005416882456643</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>74.480314437273222</v>
+        <v>83.857102781082887</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>49.086057979027146</v>
+        <v>28.519897119684288</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>104.68030063001291</v>
+        <v>123.44327064394875</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>33.369257547777373</v>
+        <v>106.17079677044163</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>96.847499455686915</v>
+        <v>42.184987423356354</v>
       </c>
       <c r="K1">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
-        <v>102.33294796234284</v>
+        <v>77.518413189184969</v>
       </c>
       <c r="L1">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
-        <v>55.408392830938858</v>
+        <v>75.076108846883741</v>
       </c>
       <c r="M1">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
-        <v>21.606577522291339</v>
+        <v>85.672934495855927</v>
       </c>
       <c r="N1">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
-        <v>40.399534038963232</v>
+        <v>61.848280170773037</v>
       </c>
       <c r="O1">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G2)^2+('1D'!$H$16-'1D'!$H2)^2)</f>
-        <v>63.840192841540492</v>
+        <v>86.321936962171819</v>
       </c>
       <c r="P1">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G2)^2+('1D'!$H$17-'1D'!$H2)^2)</f>
-        <v>26.824683631168593</v>
+        <v>99.12753017244296</v>
       </c>
       <c r="Q1">
         <f>SQRT(('1D'!$G$18-'1D'!$G2)^2+('1D'!$H$18-'1D'!$H2)^2)</f>
@@ -2422,7 +2422,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>36.603110587034713</v>
+        <v>117.72484227701329</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2430,73 +2430,73 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>79.703611721812521</v>
+        <v>160.89077959372946</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>23.900544782927852</v>
+        <v>111.50542625213551</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>55.706625651831509</v>
+        <v>40.306050134702311</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>108.95307123614718</v>
+        <v>88.656178900273048</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>83.964926574355331</v>
+        <v>94.271644909043587</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>138.82704514306096</v>
+        <v>169.39689639798652</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>50.699280042871237</v>
+        <v>173.22948254215203</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>117.88676887994409</v>
+        <v>159.27800791055955</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>72.143906149218097</v>
+        <v>58.458817020414763</v>
       </c>
       <c r="L2">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
-        <v>76.747857685506503</v>
+        <v>133.97612192038022</v>
       </c>
       <c r="M2">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
-        <v>53.180209934082484</v>
+        <v>186.62135953922095</v>
       </c>
       <c r="N2">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
-        <v>18.703695059710636</v>
+        <v>63.542985665018954</v>
       </c>
       <c r="O2">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G3)^2+('1D'!$H$16-'1D'!$H3)^2)</f>
-        <v>54.376122375667471</v>
+        <v>199.26272588047092</v>
       </c>
       <c r="P2">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G3)^2+('1D'!$H$17-'1D'!$H3)^2)</f>
-        <v>38.800745588418707</v>
+        <v>208.72306923425245</v>
       </c>
       <c r="Q2">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G3)^2+('1D'!$H$18-'1D'!$H3)^2)</f>
-        <v>36.603110587034713</v>
+        <v>117.72484227701329</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>115.27514930941844</v>
+        <v>85.123794504645033</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>79.703611721812521</v>
+        <v>160.89077959372946</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2504,73 +2504,73 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>55.907222863908203</v>
+        <v>68.552355768506928</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>25.371418432058437</v>
+        <v>120.5880614801635</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>181.28158017213951</v>
+        <v>78.165413962642475</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>163.60892555103936</v>
+        <v>81.630400472805022</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>209.35860801912929</v>
+        <v>46.328038393196373</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>115.1469508856061</v>
+        <v>186.79777973637729</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>190.76479361549551</v>
+        <v>77.129817681367868</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>34.319769097674623</v>
+        <v>102.67083806557483</v>
       </c>
       <c r="L3">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
-        <v>152.509836873441</v>
+        <v>159.73150969561638</v>
       </c>
       <c r="M3">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
-        <v>132.87108283563899</v>
+        <v>150.59255379867406</v>
       </c>
       <c r="N3">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
-        <v>87.556931283749563</v>
+        <v>130.35900697316143</v>
       </c>
       <c r="O3">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G4)^2+('1D'!$H$16-'1D'!$H4)^2)</f>
-        <v>110.55315987021163</v>
+        <v>73.861435698515635</v>
       </c>
       <c r="P3">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G4)^2+('1D'!$H$17-'1D'!$H4)^2)</f>
-        <v>116.0141952081631</v>
+        <v>149.097660196861</v>
       </c>
       <c r="Q3">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G4)^2+('1D'!$H$18-'1D'!$H4)^2)</f>
-        <v>115.27514930941844</v>
+        <v>85.123794504645033</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>60.188276754688573</v>
+        <v>99.501338674041278</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>23.900544782927852</v>
+        <v>111.50542625213551</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>55.907222863908203</v>
+        <v>68.552355768506928</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2578,73 +2578,73 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>32.645088295159567</v>
+        <v>74.841287218506025</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>130.52728924566102</v>
+        <v>25.166209690975148</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>107.8600357655054</v>
+        <v>76.339802919680309</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>159.94175510475773</v>
+        <v>58.928915090169674</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>67.805217247600808</v>
+        <v>203.23689089739824</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>138.08924823854426</v>
+        <v>119.09211877261608</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>52.810498519470443</v>
+        <v>57.780797786986476</v>
       </c>
       <c r="L4">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
-        <v>98.13368753326499</v>
+        <v>167.13296846439255</v>
       </c>
       <c r="M4">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
-        <v>76.987385302461803</v>
+        <v>183.88055956663018</v>
       </c>
       <c r="N4">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
-        <v>33.809748052781494</v>
+        <v>109.13009187622008</v>
       </c>
       <c r="O4">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G5)^2+('1D'!$H$16-'1D'!$H5)^2)</f>
-        <v>64.865532377713592</v>
+        <v>135.91774282550526</v>
       </c>
       <c r="P4">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G5)^2+('1D'!$H$17-'1D'!$H5)^2)</f>
-        <v>60.743438483140743</v>
+        <v>192.08622442244985</v>
       </c>
       <c r="Q4">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G5)^2+('1D'!$H$18-'1D'!$H5)^2)</f>
-        <v>60.188276754688573</v>
+        <v>99.501338674041278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>90.452910698900382</v>
+        <v>86.005416882456643</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>55.706625651831509</v>
+        <v>40.306050134702311</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>25.371418432058437</v>
+        <v>120.5880614801635</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>32.645088295159567</v>
+        <v>74.841287218506025</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2652,73 +2652,73 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>155.95469965278122</v>
+        <v>50.417123756706999</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>139.14320263796247</v>
+        <v>59.177965297303643</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>184.16869174014278</v>
+        <v>130.93237575318173</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>89.959259680098299</v>
+        <v>162.83810488229591</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>170.36911708119811</v>
+        <v>125.34566319630514</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>26.112602306968462</v>
+        <v>18.393053730383741</v>
       </c>
       <c r="L5">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
-        <v>130.74050450991581</v>
+        <v>122.85550644853414</v>
       </c>
       <c r="M5">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
-        <v>108.76295231189508</v>
+        <v>164.48030517307018</v>
       </c>
       <c r="N5">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
-        <v>66.066549859455847</v>
+        <v>49.673345077667136</v>
       </c>
       <c r="O5">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G6)^2+('1D'!$H$16-'1D'!$H6)^2)</f>
-        <v>93.723687665952781</v>
+        <v>162.2591677899961</v>
       </c>
       <c r="P5">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G6)^2+('1D'!$H$17-'1D'!$H6)^2)</f>
-        <v>93.379941225225963</v>
+        <v>183.01391312753748</v>
       </c>
       <c r="Q5">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G6)^2+('1D'!$H$18-'1D'!$H6)^2)</f>
-        <v>90.452910698900382</v>
+        <v>86.005416882456643</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>74.480314437273222</v>
+        <v>83.857102781082887</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>108.95307123614718</v>
+        <v>88.656178900273048</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>181.28158017213951</v>
+        <v>78.165413962642475</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>130.52728924566102</v>
+        <v>25.166209690975148</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>155.95469965278122</v>
+        <v>50.417123756706999</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2726,73 +2726,73 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>54.678563382536566</v>
+        <v>57.456854386314561</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>30.211160970343602</v>
+        <v>80.803608130718956</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>66.550278909392517</v>
+        <v>183.62262164423493</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>119.3616134510457</v>
+        <v>110.99860315545091</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>159.3522067514557</v>
+        <v>32.812235728537885</v>
       </c>
       <c r="L6">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
-        <v>94.769750563207097</v>
+        <v>146.16688168800351</v>
       </c>
       <c r="M6">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
-        <v>71.492089329960464</v>
+        <v>169.52070195566347</v>
       </c>
       <c r="N6">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
-        <v>114.82756261142046</v>
+        <v>84.622741272432719</v>
       </c>
       <c r="O6">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G7)^2+('1D'!$H$16-'1D'!$H7)^2)</f>
-        <v>132.1976790873411</v>
+        <v>136.03756380830339</v>
       </c>
       <c r="P6">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G7)^2+('1D'!$H$17-'1D'!$H7)^2)</f>
-        <v>94.08550177949725</v>
+        <v>180.96424588717781</v>
       </c>
       <c r="Q6">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G7)^2+('1D'!$H$18-'1D'!$H7)^2)</f>
-        <v>74.480314437273222</v>
+        <v>83.857102781082887</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>49.086057979027146</v>
+        <v>28.519897119684288</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>83.964926574355331</v>
+        <v>94.271644909043587</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>163.60892555103936</v>
+        <v>81.630400472805022</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>107.8600357655054</v>
+        <v>76.339802919680309</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>139.14320263796247</v>
+        <v>59.177965297303643</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>54.678563382536566</v>
+        <v>57.456854386314561</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2800,73 +2800,73 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>80.354625144278458</v>
+        <v>111.32636303469127</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>68.350838209980495</v>
+        <v>126.95994967830528</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>67.194487859503099</v>
+        <v>66.174525487058389</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>151.30055034855025</v>
+        <v>49.159228958565514</v>
       </c>
       <c r="L7">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
-        <v>40.67531692297505</v>
+        <v>91.064514970623193</v>
       </c>
       <c r="M7">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
-        <v>31.271367347404301</v>
+        <v>113.25520072230799</v>
       </c>
       <c r="N7">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
-        <v>80.911034925496864</v>
+        <v>49.145193662563955</v>
       </c>
       <c r="O7">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G8)^2+('1D'!$H$16-'1D'!$H8)^2)</f>
-        <v>86.065374495799119</v>
+        <v>105.07754660978614</v>
       </c>
       <c r="P7">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G8)^2+('1D'!$H$17-'1D'!$H8)^2)</f>
-        <v>53.035737957447523</v>
+        <v>127.64343715392441</v>
       </c>
       <c r="Q7">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G8)^2+('1D'!$H$18-'1D'!$H8)^2)</f>
-        <v>49.086057979027146</v>
+        <v>28.519897119684288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>104.68030063001291</v>
+        <v>123.44327064394875</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>138.82704514306096</v>
+        <v>169.39689639798652</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>209.35860801912929</v>
+        <v>46.328038393196373</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>159.94175510475773</v>
+        <v>58.928915090169674</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>184.16869174014278</v>
+        <v>130.93237575318173</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>30.211160970343602</v>
+        <v>80.803608130718956</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>80.354625144278458</v>
+        <v>111.32636303469127</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2874,73 +2874,73 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>94.216037886970426</v>
+        <v>228.66394024643091</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>139.89567344789489</v>
+        <v>122.76434962373284</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>185.5985914198699</v>
+        <v>112.78358845467213</v>
       </c>
       <c r="L8">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
-        <v>121.02611592477437</v>
+        <v>198.27942196187971</v>
       </c>
       <c r="M8">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
-        <v>100.97554695781793</v>
+        <v>195.87770795824088</v>
       </c>
       <c r="N8">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
-        <v>145.03752084710248</v>
+        <v>155.54337678954803</v>
       </c>
       <c r="O8">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G9)^2+('1D'!$H$16-'1D'!$H9)^2)</f>
-        <v>161.6813903285385</v>
+        <v>117.87374885965633</v>
       </c>
       <c r="P8">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G9)^2+('1D'!$H$17-'1D'!$H9)^2)</f>
-        <v>123.8977663098408</v>
+        <v>195.38064650887739</v>
       </c>
       <c r="Q8">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G9)^2+('1D'!$H$18-'1D'!$H9)^2)</f>
-        <v>104.68030063001291</v>
+        <v>123.44327064394875</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>33.369257547777373</v>
+        <v>106.17079677044163</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>50.699280042871237</v>
+        <v>173.22948254215203</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>115.1469508856061</v>
+        <v>186.79777973637729</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>67.805217247600808</v>
+        <v>203.23689089739824</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>89.959259680098299</v>
+        <v>162.83810488229591</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>66.550278909392517</v>
+        <v>183.62262164423493</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>68.350838209980495</v>
+        <v>126.95994967830528</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>94.216037886970426</v>
+        <v>228.66394024643091</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2948,73 +2948,73 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>126.98468046047009</v>
+        <v>114.45988333389693</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>93.053860166258161</v>
+        <v>164.82836016016387</v>
       </c>
       <c r="L9">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
-        <v>86.9352778073211</v>
+        <v>40.064341300657503</v>
       </c>
       <c r="M9">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
-        <v>51.336071934695617</v>
+        <v>55.317168965890701</v>
       </c>
       <c r="N9">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
-        <v>64.077767670977593</v>
+        <v>114.03300556244807</v>
       </c>
       <c r="O9">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G10)^2+('1D'!$H$16-'1D'!$H10)^2)</f>
-        <v>94.423298294845651</v>
+        <v>152.09319036044337</v>
       </c>
       <c r="P9">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G10)^2+('1D'!$H$17-'1D'!$H10)^2)</f>
-        <v>59.773440965845168</v>
+        <v>82.368992626028771</v>
       </c>
       <c r="Q9">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G10)^2+('1D'!$H$18-'1D'!$H10)^2)</f>
-        <v>33.369257547777373</v>
+        <v>106.17079677044163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>96.847499455686915</v>
+        <v>42.184987423356354</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>117.88676887994409</v>
+        <v>159.27800791055955</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>190.76479361549551</v>
+        <v>77.129817681367868</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>138.08924823854426</v>
+        <v>119.09211877261608</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>170.36911708119811</v>
+        <v>125.34566319630514</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>119.3616134510457</v>
+        <v>110.99860315545091</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>67.194487859503099</v>
+        <v>66.174525487058389</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>139.89567344789489</v>
+        <v>122.76434962373284</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>126.98468046047009</v>
+        <v>114.45988333389693</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -3022,73 +3022,73 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>189.83943414580025</v>
+        <v>113.9997954210081</v>
       </c>
       <c r="L10">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
-        <v>41.974122441823795</v>
+        <v>96.040553666363479</v>
       </c>
       <c r="M10">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
-        <v>76.016119487629524</v>
+        <v>73.5077664324305</v>
       </c>
       <c r="N10">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
-        <v>104.33523582605372</v>
+        <v>103.73362533874308</v>
       </c>
       <c r="O10">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G11)^2+('1D'!$H$16-'1D'!$H11)^2)</f>
-        <v>83.489820949060544</v>
+        <v>46.393306870041556</v>
       </c>
       <c r="P10">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G11)^2+('1D'!$H$17-'1D'!$H11)^2)</f>
-        <v>79.371845324919335</v>
+        <v>74.197646753982042</v>
       </c>
       <c r="Q10">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G11)^2+('1D'!$H$18-'1D'!$H11)^2)</f>
-        <v>96.847499455686915</v>
+        <v>42.184987423356354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>102.33294796234284</v>
+        <v>77.518413189184969</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>72.143906149218097</v>
+        <v>58.458817020414763</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>34.319769097674623</v>
+        <v>102.67083806557483</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>52.810498519470443</v>
+        <v>57.780797786986476</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>26.112602306968462</v>
+        <v>18.393053730383741</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>159.3522067514557</v>
+        <v>32.812235728537885</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>151.30055034855025</v>
+        <v>49.159228958565514</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>185.5985914198699</v>
+        <v>112.78358845467213</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>93.053860166258161</v>
+        <v>164.82836016016387</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>189.83943414580025</v>
+        <v>113.9997954210081</v>
       </c>
       <c r="K11">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -3096,73 +3096,73 @@
       </c>
       <c r="L11">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
-        <v>148.89132927177809</v>
+        <v>125.49954881878718</v>
       </c>
       <c r="M11">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
-        <v>122.67427161982185</v>
+        <v>160.24634979844598</v>
       </c>
       <c r="N11">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
-        <v>86.264283061002075</v>
+        <v>56.430573147290943</v>
       </c>
       <c r="O11">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G12)^2+('1D'!$H$16-'1D'!$H12)^2)</f>
-        <v>117.14425899106404</v>
+        <v>148.03010666343906</v>
       </c>
       <c r="P11">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G12)^2+('1D'!$H$17-'1D'!$H12)^2)</f>
-        <v>110.94401708229879</v>
+        <v>176.41309716509463</v>
       </c>
       <c r="Q11">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G12)^2+('1D'!$H$18-'1D'!$H12)^2)</f>
-        <v>102.33294796234284</v>
+        <v>77.518413189184969</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
-        <v>55.408392830938858</v>
+        <v>75.076108846883741</v>
       </c>
       <c r="B12">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
-        <v>76.747857685506503</v>
+        <v>133.97612192038022</v>
       </c>
       <c r="C12">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
-        <v>152.509836873441</v>
+        <v>159.73150969561638</v>
       </c>
       <c r="D12">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
-        <v>98.13368753326499</v>
+        <v>167.13296846439255</v>
       </c>
       <c r="E12">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
-        <v>130.74050450991581</v>
+        <v>122.85550644853414</v>
       </c>
       <c r="F12">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
-        <v>94.769750563207097</v>
+        <v>146.16688168800351</v>
       </c>
       <c r="G12">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
-        <v>40.67531692297505</v>
+        <v>91.064514970623193</v>
       </c>
       <c r="H12">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
-        <v>121.02611592477437</v>
+        <v>198.27942196187971</v>
       </c>
       <c r="I12">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
-        <v>86.9352778073211</v>
+        <v>40.064341300657503</v>
       </c>
       <c r="J12">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
-        <v>41.974122441823795</v>
+        <v>96.040553666363479</v>
       </c>
       <c r="K12">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
-        <v>148.89132927177809</v>
+        <v>125.49954881878718</v>
       </c>
       <c r="L12">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
@@ -3170,73 +3170,73 @@
       </c>
       <c r="M12">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
-        <v>35.645399474863062</v>
+        <v>65.489356446331001</v>
       </c>
       <c r="N12">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
-        <v>64.982992260798937</v>
+        <v>73.973402701601657</v>
       </c>
       <c r="O12">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G13)^2+('1D'!$H$16-'1D'!$H13)^2)</f>
-        <v>53.874223483399739</v>
+        <v>140.01722797214003</v>
       </c>
       <c r="P12">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G13)^2+('1D'!$H$17-'1D'!$H13)^2)</f>
-        <v>37.952693435771089</v>
+        <v>93.825701459622451</v>
       </c>
       <c r="Q12">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G13)^2+('1D'!$H$18-'1D'!$H13)^2)</f>
-        <v>55.408392830938858</v>
+        <v>75.076108846883741</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
-        <v>21.606577522291339</v>
+        <v>85.672934495855927</v>
       </c>
       <c r="B13">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
-        <v>53.180209934082484</v>
+        <v>186.62135953922095</v>
       </c>
       <c r="C13">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
-        <v>132.87108283563899</v>
+        <v>150.59255379867406</v>
       </c>
       <c r="D13">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
-        <v>76.987385302461803</v>
+        <v>183.88055956663018</v>
       </c>
       <c r="E13">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
-        <v>108.76295231189508</v>
+        <v>164.48030517307018</v>
       </c>
       <c r="F13">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
-        <v>71.492089329960464</v>
+        <v>169.52070195566347</v>
       </c>
       <c r="G13">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
-        <v>31.271367347404301</v>
+        <v>113.25520072230799</v>
       </c>
       <c r="H13">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
-        <v>100.97554695781793</v>
+        <v>195.87770795824088</v>
       </c>
       <c r="I13">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
-        <v>51.336071934695617</v>
+        <v>55.317168965890701</v>
       </c>
       <c r="J13">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
-        <v>76.016119487629524</v>
+        <v>73.5077664324305</v>
       </c>
       <c r="K13">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
-        <v>122.67427161982185</v>
+        <v>160.24634979844598</v>
       </c>
       <c r="L13">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
-        <v>35.645399474863062</v>
+        <v>65.489356446331001</v>
       </c>
       <c r="M13">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
@@ -3244,73 +3244,73 @@
       </c>
       <c r="N13">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
-        <v>49.819702949677229</v>
+        <v>123.07845543106411</v>
       </c>
       <c r="O13">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G14)^2+('1D'!$H$16-'1D'!$H14)^2)</f>
-        <v>60.732233818278949</v>
+        <v>101.90281536672769</v>
       </c>
       <c r="P13">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G14)^2+('1D'!$H$17-'1D'!$H14)^2)</f>
-        <v>23.418945982008413</v>
+        <v>28.826956719655627</v>
       </c>
       <c r="Q13">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G14)^2+('1D'!$H$18-'1D'!$H14)^2)</f>
-        <v>21.606577522291339</v>
+        <v>85.672934495855927</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G15)^2+('1D'!$H$2-'1D'!$H15)^2)</f>
-        <v>40.399534038963232</v>
+        <v>61.848280170773037</v>
       </c>
       <c r="B14">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
-        <v>18.703695059710636</v>
+        <v>63.542985665018954</v>
       </c>
       <c r="C14">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
-        <v>87.556931283749563</v>
+        <v>130.35900697316143</v>
       </c>
       <c r="D14">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
-        <v>33.809748052781494</v>
+        <v>109.13009187622008</v>
       </c>
       <c r="E14">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
-        <v>66.066549859455847</v>
+        <v>49.673345077667136</v>
       </c>
       <c r="F14">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
-        <v>114.82756261142046</v>
+        <v>84.622741272432719</v>
       </c>
       <c r="G14">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
-        <v>80.911034925496864</v>
+        <v>49.145193662563955</v>
       </c>
       <c r="H14">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
-        <v>145.03752084710248</v>
+        <v>155.54337678954803</v>
       </c>
       <c r="I14">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
-        <v>64.077767670977593</v>
+        <v>114.03300556244807</v>
       </c>
       <c r="J14">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
-        <v>104.33523582605372</v>
+        <v>103.73362533874308</v>
       </c>
       <c r="K14">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
-        <v>86.264283061002075</v>
+        <v>56.430573147290943</v>
       </c>
       <c r="L14">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
-        <v>64.982992260798937</v>
+        <v>73.973402701601657</v>
       </c>
       <c r="M14">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
-        <v>49.819702949677229</v>
+        <v>123.07845543106411</v>
       </c>
       <c r="N14">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
@@ -3318,73 +3318,73 @@
       </c>
       <c r="O14">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G15)^2+('1D'!$H$16-'1D'!$H15)^2)</f>
-        <v>35.675040493473581</v>
+        <v>148.04679460279036</v>
       </c>
       <c r="P14">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G15)^2+('1D'!$H$17-'1D'!$H15)^2)</f>
-        <v>29.11805523423331</v>
+        <v>145.592351623718</v>
       </c>
       <c r="Q14">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G15)^2+('1D'!$H$18-'1D'!$H15)^2)</f>
-        <v>40.399534038963232</v>
+        <v>61.848280170773037</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G16)^2+('1D'!$H$2-'1D'!$H16)^2)</f>
-        <v>63.840192841540492</v>
+        <v>86.321936962171819</v>
       </c>
       <c r="B15">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G16)^2+('1D'!$H$3-'1D'!$H16)^2)</f>
-        <v>54.376122375667471</v>
+        <v>199.26272588047092</v>
       </c>
       <c r="C15">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G16)^2+('1D'!$H$4-'1D'!$H16)^2)</f>
-        <v>110.55315987021163</v>
+        <v>73.861435698515635</v>
       </c>
       <c r="D15">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G16)^2+('1D'!$H$5-'1D'!$H16)^2)</f>
-        <v>64.865532377713592</v>
+        <v>135.91774282550526</v>
       </c>
       <c r="E15">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G16)^2+('1D'!$H$6-'1D'!$H16)^2)</f>
-        <v>93.723687665952781</v>
+        <v>162.2591677899961</v>
       </c>
       <c r="F15">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G16)^2+('1D'!$H$7-'1D'!$H16)^2)</f>
-        <v>132.1976790873411</v>
+        <v>136.03756380830339</v>
       </c>
       <c r="G15">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G16)^2+('1D'!$H$8-'1D'!$H16)^2)</f>
-        <v>86.065374495799119</v>
+        <v>105.07754660978614</v>
       </c>
       <c r="H15">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G16)^2+('1D'!$H$9-'1D'!$H16)^2)</f>
-        <v>161.6813903285385</v>
+        <v>117.87374885965633</v>
       </c>
       <c r="I15">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G16)^2+('1D'!$H$10-'1D'!$H16)^2)</f>
-        <v>94.423298294845651</v>
+        <v>152.09319036044337</v>
       </c>
       <c r="J15">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G16)^2+('1D'!$H$11-'1D'!$H16)^2)</f>
-        <v>83.489820949060544</v>
+        <v>46.393306870041556</v>
       </c>
       <c r="K15">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G16)^2+('1D'!$H$12-'1D'!$H16)^2)</f>
-        <v>117.14425899106404</v>
+        <v>148.03010666343906</v>
       </c>
       <c r="L15">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G16)^2+('1D'!$H$13-'1D'!$H16)^2)</f>
-        <v>53.874223483399739</v>
+        <v>140.01722797214003</v>
       </c>
       <c r="M15">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G16)^2+('1D'!$H$14-'1D'!$H16)^2)</f>
-        <v>60.732233818278949</v>
+        <v>101.90281536672769</v>
       </c>
       <c r="N15">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G16)^2+('1D'!$H$15-'1D'!$H16)^2)</f>
-        <v>35.675040493473581</v>
+        <v>148.04679460279036</v>
       </c>
       <c r="O15">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G16)^2+('1D'!$H$16-'1D'!$H16)^2)</f>
@@ -3392,73 +3392,73 @@
       </c>
       <c r="P15">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G16)^2+('1D'!$H$17-'1D'!$H16)^2)</f>
-        <v>38.63237519798011</v>
+        <v>88.86858769964752</v>
       </c>
       <c r="Q15">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G16)^2+('1D'!$H$18-'1D'!$H16)^2)</f>
-        <v>63.840192841540492</v>
+        <v>86.321936962171819</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G17)^2+('1D'!$H$2-'1D'!$H17)^2)</f>
-        <v>26.824683631168593</v>
+        <v>99.12753017244296</v>
       </c>
       <c r="B16">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G17)^2+('1D'!$H$3-'1D'!$H17)^2)</f>
-        <v>38.800745588418707</v>
+        <v>208.72306923425245</v>
       </c>
       <c r="C16">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G17)^2+('1D'!$H$4-'1D'!$H17)^2)</f>
-        <v>116.0141952081631</v>
+        <v>149.097660196861</v>
       </c>
       <c r="D16">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G17)^2+('1D'!$H$5-'1D'!$H17)^2)</f>
-        <v>60.743438483140743</v>
+        <v>192.08622442244985</v>
       </c>
       <c r="E16">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G17)^2+('1D'!$H$6-'1D'!$H17)^2)</f>
-        <v>93.379941225225963</v>
+        <v>183.01391312753748</v>
       </c>
       <c r="F16">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G17)^2+('1D'!$H$7-'1D'!$H17)^2)</f>
-        <v>94.08550177949725</v>
+        <v>180.96424588717781</v>
       </c>
       <c r="G16">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G17)^2+('1D'!$H$8-'1D'!$H17)^2)</f>
-        <v>53.035737957447523</v>
+        <v>127.64343715392441</v>
       </c>
       <c r="H16">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G17)^2+('1D'!$H$9-'1D'!$H17)^2)</f>
-        <v>123.8977663098408</v>
+        <v>195.38064650887739</v>
       </c>
       <c r="I16">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G17)^2+('1D'!$H$10-'1D'!$H17)^2)</f>
-        <v>59.773440965845168</v>
+        <v>82.368992626028771</v>
       </c>
       <c r="J16">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G17)^2+('1D'!$H$11-'1D'!$H17)^2)</f>
-        <v>79.371845324919335</v>
+        <v>74.197646753982042</v>
       </c>
       <c r="K16">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G17)^2+('1D'!$H$12-'1D'!$H17)^2)</f>
-        <v>110.94401708229879</v>
+        <v>176.41309716509463</v>
       </c>
       <c r="L16">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G17)^2+('1D'!$H$13-'1D'!$H17)^2)</f>
-        <v>37.952693435771089</v>
+        <v>93.825701459622451</v>
       </c>
       <c r="M16">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G17)^2+('1D'!$H$14-'1D'!$H17)^2)</f>
-        <v>23.418945982008413</v>
+        <v>28.826956719655627</v>
       </c>
       <c r="N16">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G17)^2+('1D'!$H$15-'1D'!$H17)^2)</f>
-        <v>29.11805523423331</v>
+        <v>145.592351623718</v>
       </c>
       <c r="O16">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G17)^2+('1D'!$H$16-'1D'!$H17)^2)</f>
-        <v>38.63237519798011</v>
+        <v>88.86858769964752</v>
       </c>
       <c r="P16">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G17)^2+('1D'!$H$17-'1D'!$H17)^2)</f>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="Q16">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G17)^2+('1D'!$H$18-'1D'!$H17)^2)</f>
-        <v>26.824683631168593</v>
+        <v>99.12753017244296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3476,63 +3476,63 @@
       </c>
       <c r="B17">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G18)^2+('1D'!$H$3-'1D'!$H18)^2)</f>
-        <v>36.603110587034713</v>
+        <v>117.72484227701329</v>
       </c>
       <c r="C17">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G18)^2+('1D'!$H$4-'1D'!$H18)^2)</f>
-        <v>115.27514930941844</v>
+        <v>85.123794504645033</v>
       </c>
       <c r="D17">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G18)^2+('1D'!$H$5-'1D'!$H18)^2)</f>
-        <v>60.188276754688573</v>
+        <v>99.501338674041278</v>
       </c>
       <c r="E17">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G18)^2+('1D'!$H$6-'1D'!$H18)^2)</f>
-        <v>90.452910698900382</v>
+        <v>86.005416882456643</v>
       </c>
       <c r="F17">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G18)^2+('1D'!$H$7-'1D'!$H18)^2)</f>
-        <v>74.480314437273222</v>
+        <v>83.857102781082887</v>
       </c>
       <c r="G17">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G18)^2+('1D'!$H$8-'1D'!$H18)^2)</f>
-        <v>49.086057979027146</v>
+        <v>28.519897119684288</v>
       </c>
       <c r="H17">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G18)^2+('1D'!$H$9-'1D'!$H18)^2)</f>
-        <v>104.68030063001291</v>
+        <v>123.44327064394875</v>
       </c>
       <c r="I17">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G18)^2+('1D'!$H$10-'1D'!$H18)^2)</f>
-        <v>33.369257547777373</v>
+        <v>106.17079677044163</v>
       </c>
       <c r="J17">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G18)^2+('1D'!$H$11-'1D'!$H18)^2)</f>
-        <v>96.847499455686915</v>
+        <v>42.184987423356354</v>
       </c>
       <c r="K17">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G18)^2+('1D'!$H$12-'1D'!$H18)^2)</f>
-        <v>102.33294796234284</v>
+        <v>77.518413189184969</v>
       </c>
       <c r="L17">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G18)^2+('1D'!$H$13-'1D'!$H18)^2)</f>
-        <v>55.408392830938858</v>
+        <v>75.076108846883741</v>
       </c>
       <c r="M17">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G18)^2+('1D'!$H$14-'1D'!$H18)^2)</f>
-        <v>21.606577522291339</v>
+        <v>85.672934495855927</v>
       </c>
       <c r="N17">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G18)^2+('1D'!$H$15-'1D'!$H18)^2)</f>
-        <v>40.399534038963232</v>
+        <v>61.848280170773037</v>
       </c>
       <c r="O17">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G18)^2+('1D'!$H$16-'1D'!$H18)^2)</f>
-        <v>63.840192841540492</v>
+        <v>86.321936962171819</v>
       </c>
       <c r="P17">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G18)^2+('1D'!$H$17-'1D'!$H18)^2)</f>
-        <v>26.824683631168593</v>
+        <v>99.12753017244296</v>
       </c>
       <c r="Q17">
         <f>SQRT(('1D'!$G$18-'1D'!$G18)^2+('1D'!$H$18-'1D'!$H18)^2)</f>
@@ -3551,8 +3551,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,63 +3564,63 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>0.45753888233793394</v>
+        <v>1.4715605284626663</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>1.4409393663677306</v>
+        <v>1.064047431308063</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>0.75235345943360721</v>
+        <v>1.243766733425516</v>
       </c>
       <c r="E1">
+        <f ca="1">Distances!E1/80</f>
+        <v>1.0750677110307081</v>
+      </c>
+      <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.93100393046591523</v>
-      </c>
-      <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>0.61357572473783928</v>
+        <v>1.048213784763536</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.61357572473783928</v>
+        <v>0.3564987139960536</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>1.3085037578751613</v>
+        <v>1.5430408830493594</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>0.41711571934721714</v>
+        <v>1.3271349596305204</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>1.2105937431960865</v>
+        <v>0.52731234279195438</v>
       </c>
       <c r="K1">
         <f ca="1">Distances!K1/80</f>
-        <v>1.2791618495292856</v>
+        <v>0.96898016486481209</v>
       </c>
       <c r="L1">
         <f ca="1">Distances!L1/80</f>
-        <v>0.69260491038673577</v>
+        <v>0.93845136058604672</v>
       </c>
       <c r="M1">
         <f ca="1">Distances!M1/80</f>
-        <v>0.27008221902864171</v>
+        <v>1.0709116811981991</v>
       </c>
       <c r="N1">
         <f ca="1">Distances!N1/80</f>
-        <v>0.5049941754870404</v>
+        <v>0.77310350213466295</v>
       </c>
       <c r="O1">
         <f ca="1">Distances!O1/80</f>
-        <v>0.79800241051925613</v>
+        <v>1.0790242120271478</v>
       </c>
       <c r="P1">
         <f ca="1">Distances!P1/80</f>
-        <v>0.33530854538960742</v>
+        <v>1.2390941271555369</v>
       </c>
       <c r="Q1">
         <f>Distances!Q1/80</f>
@@ -3630,7 +3630,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>0.45753888233793394</v>
+        <v>1.4715605284626663</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -3638,73 +3638,73 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>0.99629514652265649</v>
+        <v>2.0111347449216184</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>0.29875680978659813</v>
+        <v>1.3938178281516937</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>0.69633282064789381</v>
+        <v>0.50382562668377884</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>1.3619133904518397</v>
+        <v>1.1082022362534132</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>1.0495615821794417</v>
+        <v>1.1783955613630448</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>1.7353380642882619</v>
+        <v>2.1174612049748314</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>0.63374100053589044</v>
+        <v>2.1653685317769003</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>1.4735846109993012</v>
+        <v>1.9909750988819943</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>0.90179882686522617</v>
+        <v>0.73073521275518449</v>
       </c>
       <c r="L2">
         <f ca="1">Distances!L2/80</f>
-        <v>0.95934822106883133</v>
+        <v>1.6747015240047527</v>
       </c>
       <c r="M2">
         <f ca="1">Distances!M2/80</f>
-        <v>0.66475262417603109</v>
+        <v>2.332766994240262</v>
       </c>
       <c r="N2">
         <f ca="1">Distances!N2/80</f>
-        <v>0.23379618824638296</v>
+        <v>0.7942873208127369</v>
       </c>
       <c r="O2">
         <f ca="1">Distances!O2/80</f>
-        <v>0.67970152969584341</v>
+        <v>2.4907840735058864</v>
       </c>
       <c r="P2">
         <f ca="1">Distances!P2/80</f>
-        <v>0.48500931985523382</v>
+        <v>2.6090383654281557</v>
       </c>
       <c r="Q2">
         <f ca="1">Distances!Q2/80</f>
-        <v>0.45753888233793394</v>
+        <v>1.4715605284626663</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>1.4409393663677306</v>
+        <v>1.064047431308063</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>0.99629514652265649</v>
+        <v>2.0111347449216184</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -3712,73 +3712,73 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.69884028579885249</v>
+        <v>0.85690444710633662</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>0.31714273040073049</v>
+        <v>1.5073507685020437</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>2.266019752151744</v>
+        <v>0.97706767453303089</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>2.0451115693879922</v>
+        <v>1.0203800059100627</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>2.6169826002391163</v>
+        <v>0.57910047991495461</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>1.4393368860700764</v>
+        <v>2.3349722467047163</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>2.384559920193694</v>
+        <v>0.96412272101709839</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>0.4289971137209328</v>
+        <v>1.2833854758196854</v>
       </c>
       <c r="L3">
         <f ca="1">Distances!L3/80</f>
-        <v>1.9063729609180124</v>
+        <v>1.9966438711952048</v>
       </c>
       <c r="M3">
         <f ca="1">Distances!M3/80</f>
-        <v>1.6608885354454874</v>
+        <v>1.8824069224834257</v>
       </c>
       <c r="N3">
         <f ca="1">Distances!N3/80</f>
-        <v>1.0944616410468695</v>
+        <v>1.6294875871645178</v>
       </c>
       <c r="O3">
         <f ca="1">Distances!O3/80</f>
-        <v>1.3819144983776455</v>
+        <v>0.92326794623144548</v>
       </c>
       <c r="P3">
         <f ca="1">Distances!P3/80</f>
-        <v>1.4501774401020389</v>
+        <v>1.8637207524607624</v>
       </c>
       <c r="Q3">
         <f ca="1">Distances!Q3/80</f>
-        <v>1.4409393663677306</v>
+        <v>1.064047431308063</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>0.75235345943360721</v>
+        <v>1.243766733425516</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>0.29875680978659813</v>
+        <v>1.3938178281516937</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.69884028579885249</v>
+        <v>0.85690444710633662</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -3786,73 +3786,73 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>0.40806360368949457</v>
+        <v>0.93551609023132531</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>1.6315911155707628</v>
+        <v>0.31457762113718934</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>1.3482504470688175</v>
+        <v>0.95424753649600391</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.9992719388094717</v>
+        <v>0.73661143862712097</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>0.84756521559501008</v>
+        <v>2.5404611362174778</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>1.7261156029818032</v>
+        <v>1.488651484657701</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>0.66013123149338049</v>
+        <v>0.72225997233733097</v>
       </c>
       <c r="L4">
         <f ca="1">Distances!L4/80</f>
-        <v>1.2266710941658123</v>
+        <v>2.089162105804907</v>
       </c>
       <c r="M4">
         <f ca="1">Distances!M4/80</f>
-        <v>0.96234231628077249</v>
+        <v>2.2985069945828771</v>
       </c>
       <c r="N4">
         <f ca="1">Distances!N4/80</f>
-        <v>0.42262185065976865</v>
+        <v>1.3641261484527509</v>
       </c>
       <c r="O4">
         <f ca="1">Distances!O4/80</f>
-        <v>0.81081915472141985</v>
+        <v>1.6989717853188158</v>
       </c>
       <c r="P4">
         <f ca="1">Distances!P4/80</f>
-        <v>0.75929298103925924</v>
+        <v>2.401077805280623</v>
       </c>
       <c r="Q4">
         <f ca="1">Distances!Q4/80</f>
-        <v>0.75235345943360721</v>
+        <v>1.243766733425516</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.1306613837362547</v>
+        <v>1.0750677110307081</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>0.69633282064789381</v>
+        <v>0.50382562668377884</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>0.31714273040073049</v>
+        <v>1.5073507685020437</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>0.40806360368949457</v>
+        <v>0.93551609023132531</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -3860,73 +3860,73 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>1.9494337456597652</v>
+        <v>0.63021404695883754</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.7392900329745309</v>
+        <v>0.73972456621629556</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>2.3021086467517846</v>
+        <v>1.6366546969147717</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>1.1244907460012288</v>
+        <v>2.0354763110286989</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>2.1296139635149762</v>
+        <v>1.5668207899538142</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>0.32640752883710578</v>
+        <v>0.22991317162979677</v>
       </c>
       <c r="L5">
         <f ca="1">Distances!L5/80</f>
-        <v>1.6342563063739477</v>
+        <v>1.5356938306066767</v>
       </c>
       <c r="M5">
         <f ca="1">Distances!M5/80</f>
-        <v>1.3595369038986884</v>
+        <v>2.0560038146633772</v>
       </c>
       <c r="N5">
         <f ca="1">Distances!N5/80</f>
-        <v>0.82583187324319807</v>
+        <v>0.62091681347083916</v>
       </c>
       <c r="O5">
         <f ca="1">Distances!O5/80</f>
-        <v>1.1715460958244097</v>
+        <v>2.0282395973749514</v>
       </c>
       <c r="P5">
         <f ca="1">Distances!P5/80</f>
-        <v>1.1672492653153246</v>
+        <v>2.2876739140942184</v>
       </c>
       <c r="Q5">
         <f ca="1">Distances!Q5/80</f>
-        <v>1.1306613837362547</v>
+        <v>1.0750677110307081</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.93100393046591523</v>
+        <v>1.048213784763536</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>1.3619133904518397</v>
+        <v>1.1082022362534132</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>2.266019752151744</v>
+        <v>0.97706767453303089</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>1.6315911155707628</v>
+        <v>0.31457762113718934</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>1.9494337456597652</v>
+        <v>0.63021404695883754</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -3934,73 +3934,73 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>0.68348204228170706</v>
+        <v>0.71821067982893205</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>0.37763951212929503</v>
+        <v>1.0100451016339869</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>0.83187848636740647</v>
+        <v>2.2952827705529364</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>1.4920201681380711</v>
+        <v>1.3874825394431363</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>1.9919025843931961</v>
+        <v>0.41015294660672358</v>
       </c>
       <c r="L6">
         <f ca="1">Distances!L6/80</f>
-        <v>1.1846218820400887</v>
+        <v>1.8270860211000439</v>
       </c>
       <c r="M6">
         <f ca="1">Distances!M6/80</f>
-        <v>0.8936511166245058</v>
+        <v>2.1190087744457933</v>
       </c>
       <c r="N6">
         <f ca="1">Distances!N6/80</f>
-        <v>1.4353445326427559</v>
+        <v>1.0577842659054091</v>
       </c>
       <c r="O6">
         <f ca="1">Distances!O6/80</f>
-        <v>1.6524709885917637</v>
+        <v>1.7004695476037923</v>
       </c>
       <c r="P6">
         <f ca="1">Distances!P6/80</f>
-        <v>1.1760687722437155</v>
+        <v>2.2620530735897226</v>
       </c>
       <c r="Q6">
         <f ca="1">Distances!Q6/80</f>
-        <v>0.93100393046591523</v>
+        <v>1.048213784763536</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.61357572473783928</v>
+        <v>0.3564987139960536</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>1.0495615821794417</v>
+        <v>1.1783955613630448</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>2.0451115693879922</v>
+        <v>1.0203800059100627</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>1.3482504470688175</v>
+        <v>0.95424753649600391</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.7392900329745309</v>
+        <v>0.73972456621629556</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>0.68348204228170706</v>
+        <v>0.71821067982893205</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -4008,73 +4008,73 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>1.0044328143034806</v>
+        <v>1.3915795379336409</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>0.85438547762475614</v>
+        <v>1.5869993709788159</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>0.83993109824378875</v>
+        <v>0.82718156858822989</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>1.891256879356878</v>
+        <v>0.61449036198206897</v>
       </c>
       <c r="L7">
         <f ca="1">Distances!L7/80</f>
-        <v>0.50844146153718817</v>
+        <v>1.13830643713279</v>
       </c>
       <c r="M7">
         <f ca="1">Distances!M7/80</f>
-        <v>0.39089209184255375</v>
+        <v>1.4156900090288498</v>
       </c>
       <c r="N7">
         <f ca="1">Distances!N7/80</f>
-        <v>1.0113879365687108</v>
+        <v>0.61431492078204941</v>
       </c>
       <c r="O7">
         <f ca="1">Distances!O7/80</f>
-        <v>1.075817181197489</v>
+        <v>1.3134693326223268</v>
       </c>
       <c r="P7">
         <f ca="1">Distances!P7/80</f>
-        <v>0.662946724468094</v>
+        <v>1.5955429644240551</v>
       </c>
       <c r="Q7">
         <f ca="1">Distances!Q7/80</f>
-        <v>0.61357572473783928</v>
+        <v>0.3564987139960536</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>1.3085037578751613</v>
+        <v>1.5430408830493594</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>1.7353380642882619</v>
+        <v>2.1174612049748314</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>2.6169826002391163</v>
+        <v>0.57910047991495461</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.9992719388094717</v>
+        <v>0.73661143862712097</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>2.3021086467517846</v>
+        <v>1.6366546969147717</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>0.37763951212929503</v>
+        <v>1.0100451016339869</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>1.0044328143034806</v>
+        <v>1.3915795379336409</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -4082,73 +4082,73 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>1.1777004735871304</v>
+        <v>2.8582992530803866</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>1.7486959180986861</v>
+        <v>1.5345543702966604</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>2.3199823927483738</v>
+        <v>1.4097948556834017</v>
       </c>
       <c r="L8">
         <f ca="1">Distances!L8/80</f>
-        <v>1.5128264490596797</v>
+        <v>2.4784927745234961</v>
       </c>
       <c r="M8">
         <f ca="1">Distances!M8/80</f>
-        <v>1.262194336972724</v>
+        <v>2.448471349478011</v>
       </c>
       <c r="N8">
         <f ca="1">Distances!N8/80</f>
-        <v>1.812969010588781</v>
+        <v>1.9442922098693505</v>
       </c>
       <c r="O8">
         <f ca="1">Distances!O8/80</f>
-        <v>2.0210173791067314</v>
+        <v>1.4734218607457041</v>
       </c>
       <c r="P8">
         <f ca="1">Distances!P8/80</f>
-        <v>1.5487220788730101</v>
+        <v>2.4422580813609676</v>
       </c>
       <c r="Q8">
         <f ca="1">Distances!Q8/80</f>
-        <v>1.3085037578751613</v>
+        <v>1.5430408830493594</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>0.41711571934721714</v>
+        <v>1.3271349596305204</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>0.63374100053589044</v>
+        <v>2.1653685317769003</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>1.4393368860700764</v>
+        <v>2.3349722467047163</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>0.84756521559501008</v>
+        <v>2.5404611362174778</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>1.1244907460012288</v>
+        <v>2.0354763110286989</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>0.83187848636740647</v>
+        <v>2.2952827705529364</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>0.85438547762475614</v>
+        <v>1.5869993709788159</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>1.1777004735871304</v>
+        <v>2.8582992530803866</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -4156,73 +4156,73 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>1.587308505755876</v>
+        <v>1.4307485416737116</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>1.163173252078227</v>
+        <v>2.0603545020020482</v>
       </c>
       <c r="L9">
         <f ca="1">Distances!L9/80</f>
-        <v>1.0866909725915137</v>
+        <v>0.50080426625821883</v>
       </c>
       <c r="M9">
         <f ca="1">Distances!M9/80</f>
-        <v>0.64170089918369522</v>
+        <v>0.69146461207363374</v>
       </c>
       <c r="N9">
         <f ca="1">Distances!N9/80</f>
-        <v>0.80097209588721996</v>
+        <v>1.4254125695306008</v>
       </c>
       <c r="O9">
         <f ca="1">Distances!O9/80</f>
-        <v>1.1802912286855707</v>
+        <v>1.9011648795055422</v>
       </c>
       <c r="P9">
         <f ca="1">Distances!P9/80</f>
-        <v>0.7471680120730646</v>
+        <v>1.0296124078253597</v>
       </c>
       <c r="Q9">
         <f ca="1">Distances!Q9/80</f>
-        <v>0.41711571934721714</v>
+        <v>1.3271349596305204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>1.2105937431960865</v>
+        <v>0.52731234279195438</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>1.4735846109993012</v>
+        <v>1.9909750988819943</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>2.384559920193694</v>
+        <v>0.96412272101709839</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>1.7261156029818032</v>
+        <v>1.488651484657701</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>2.1296139635149762</v>
+        <v>1.5668207899538142</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>1.4920201681380711</v>
+        <v>1.3874825394431363</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>0.83993109824378875</v>
+        <v>0.82718156858822989</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>1.7486959180986861</v>
+        <v>1.5345543702966604</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>1.587308505755876</v>
+        <v>1.4307485416737116</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -4230,73 +4230,73 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>2.3729929268225032</v>
+        <v>1.4249974427626013</v>
       </c>
       <c r="L10">
         <f ca="1">Distances!L10/80</f>
-        <v>0.52467653052279739</v>
+        <v>1.2005069208295436</v>
       </c>
       <c r="M10">
         <f ca="1">Distances!M10/80</f>
-        <v>0.9502014935953691</v>
+        <v>0.91884708040538121</v>
       </c>
       <c r="N10">
         <f ca="1">Distances!N10/80</f>
-        <v>1.3041904478256714</v>
+        <v>1.2966703167342886</v>
       </c>
       <c r="O10">
         <f ca="1">Distances!O10/80</f>
-        <v>1.0436227618632568</v>
+        <v>0.5799163358755195</v>
       </c>
       <c r="P10">
         <f ca="1">Distances!P10/80</f>
-        <v>0.99214806656149168</v>
+        <v>0.92747058442477548</v>
       </c>
       <c r="Q10">
         <f ca="1">Distances!Q10/80</f>
-        <v>1.2105937431960865</v>
+        <v>0.52731234279195438</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">Distances!A11/80</f>
-        <v>1.2791618495292856</v>
+        <v>0.96898016486481209</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>0.90179882686522617</v>
+        <v>0.73073521275518449</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>0.4289971137209328</v>
+        <v>1.2833854758196854</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>0.66013123149338049</v>
+        <v>0.72225997233733097</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>0.32640752883710578</v>
+        <v>0.22991317162979677</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>1.9919025843931961</v>
+        <v>0.41015294660672358</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>1.891256879356878</v>
+        <v>0.61449036198206897</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>2.3199823927483738</v>
+        <v>1.4097948556834017</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>1.163173252078227</v>
+        <v>2.0603545020020482</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>2.3729929268225032</v>
+        <v>1.4249974427626013</v>
       </c>
       <c r="K11">
         <f ca="1">Distances!K11/80</f>
@@ -4304,73 +4304,73 @@
       </c>
       <c r="L11">
         <f ca="1">Distances!L11/80</f>
-        <v>1.861141615897226</v>
+        <v>1.5687443602348397</v>
       </c>
       <c r="M11">
         <f ca="1">Distances!M11/80</f>
-        <v>1.5334283952477732</v>
+        <v>2.0030793724805749</v>
       </c>
       <c r="N11">
         <f ca="1">Distances!N11/80</f>
-        <v>1.0783035382625259</v>
+        <v>0.70538216434113676</v>
       </c>
       <c r="O11">
         <f ca="1">Distances!O11/80</f>
-        <v>1.4643032373883005</v>
+        <v>1.8503763332929881</v>
       </c>
       <c r="P11">
         <f ca="1">Distances!P11/80</f>
-        <v>1.3868002135287347</v>
+        <v>2.2051637145636827</v>
       </c>
       <c r="Q11">
         <f ca="1">Distances!Q11/80</f>
-        <v>1.2791618495292856</v>
+        <v>0.96898016486481209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">Distances!A12/80</f>
-        <v>0.69260491038673577</v>
+        <v>0.93845136058604672</v>
       </c>
       <c r="B12">
         <f ca="1">Distances!B12/80</f>
-        <v>0.95934822106883133</v>
+        <v>1.6747015240047527</v>
       </c>
       <c r="C12">
         <f ca="1">Distances!C12/80</f>
-        <v>1.9063729609180124</v>
+        <v>1.9966438711952048</v>
       </c>
       <c r="D12">
         <f ca="1">Distances!D12/80</f>
-        <v>1.2266710941658123</v>
+        <v>2.089162105804907</v>
       </c>
       <c r="E12">
         <f ca="1">Distances!E12/80</f>
-        <v>1.6342563063739477</v>
+        <v>1.5356938306066767</v>
       </c>
       <c r="F12">
         <f ca="1">Distances!F12/80</f>
-        <v>1.1846218820400887</v>
+        <v>1.8270860211000439</v>
       </c>
       <c r="G12">
         <f ca="1">Distances!G12/80</f>
-        <v>0.50844146153718817</v>
+        <v>1.13830643713279</v>
       </c>
       <c r="H12">
         <f ca="1">Distances!H12/80</f>
-        <v>1.5128264490596797</v>
+        <v>2.4784927745234961</v>
       </c>
       <c r="I12">
         <f ca="1">Distances!I12/80</f>
-        <v>1.0866909725915137</v>
+        <v>0.50080426625821883</v>
       </c>
       <c r="J12">
         <f ca="1">Distances!J12/80</f>
-        <v>0.52467653052279739</v>
+        <v>1.2005069208295436</v>
       </c>
       <c r="K12">
         <f ca="1">Distances!K12/80</f>
-        <v>1.861141615897226</v>
+        <v>1.5687443602348397</v>
       </c>
       <c r="L12">
         <f ca="1">Distances!L12/80</f>
@@ -4378,73 +4378,73 @@
       </c>
       <c r="M12">
         <f ca="1">Distances!M12/80</f>
-        <v>0.44556749343578828</v>
+        <v>0.8186169555791375</v>
       </c>
       <c r="N12">
         <f ca="1">Distances!N12/80</f>
-        <v>0.81228740325998672</v>
+        <v>0.92466753377002076</v>
       </c>
       <c r="O12">
         <f ca="1">Distances!O12/80</f>
-        <v>0.67342779354249671</v>
+        <v>1.7502153496517505</v>
       </c>
       <c r="P12">
         <f ca="1">Distances!P12/80</f>
-        <v>0.4744086679471386</v>
+        <v>1.1728212682452805</v>
       </c>
       <c r="Q12">
         <f ca="1">Distances!Q12/80</f>
-        <v>0.69260491038673577</v>
+        <v>0.93845136058604672</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">Distances!A13/80</f>
-        <v>0.27008221902864171</v>
+        <v>1.0709116811981991</v>
       </c>
       <c r="B13">
         <f ca="1">Distances!B13/80</f>
-        <v>0.66475262417603109</v>
+        <v>2.332766994240262</v>
       </c>
       <c r="C13">
         <f ca="1">Distances!C13/80</f>
-        <v>1.6608885354454874</v>
+        <v>1.8824069224834257</v>
       </c>
       <c r="D13">
         <f ca="1">Distances!D13/80</f>
-        <v>0.96234231628077249</v>
+        <v>2.2985069945828771</v>
       </c>
       <c r="E13">
         <f ca="1">Distances!E13/80</f>
-        <v>1.3595369038986884</v>
+        <v>2.0560038146633772</v>
       </c>
       <c r="F13">
         <f ca="1">Distances!F13/80</f>
-        <v>0.8936511166245058</v>
+        <v>2.1190087744457933</v>
       </c>
       <c r="G13">
         <f ca="1">Distances!G13/80</f>
-        <v>0.39089209184255375</v>
+        <v>1.4156900090288498</v>
       </c>
       <c r="H13">
         <f ca="1">Distances!H13/80</f>
-        <v>1.262194336972724</v>
+        <v>2.448471349478011</v>
       </c>
       <c r="I13">
         <f ca="1">Distances!I13/80</f>
-        <v>0.64170089918369522</v>
+        <v>0.69146461207363374</v>
       </c>
       <c r="J13">
         <f ca="1">Distances!J13/80</f>
-        <v>0.9502014935953691</v>
+        <v>0.91884708040538121</v>
       </c>
       <c r="K13">
         <f ca="1">Distances!K13/80</f>
-        <v>1.5334283952477732</v>
+        <v>2.0030793724805749</v>
       </c>
       <c r="L13">
         <f ca="1">Distances!L13/80</f>
-        <v>0.44556749343578828</v>
+        <v>0.8186169555791375</v>
       </c>
       <c r="M13">
         <f ca="1">Distances!M13/80</f>
@@ -4452,73 +4452,73 @@
       </c>
       <c r="N13">
         <f ca="1">Distances!N13/80</f>
-        <v>0.62274628687096534</v>
+        <v>1.5384806928883015</v>
       </c>
       <c r="O13">
         <f ca="1">Distances!O13/80</f>
-        <v>0.75915292272848689</v>
+        <v>1.2737851920840961</v>
       </c>
       <c r="P13">
         <f ca="1">Distances!P13/80</f>
-        <v>0.29273682477510515</v>
+        <v>0.36033695899569534</v>
       </c>
       <c r="Q13">
         <f ca="1">Distances!Q13/80</f>
-        <v>0.27008221902864171</v>
+        <v>1.0709116811981991</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">Distances!A14/80</f>
-        <v>0.5049941754870404</v>
+        <v>0.77310350213466295</v>
       </c>
       <c r="B14">
         <f ca="1">Distances!B14/80</f>
-        <v>0.23379618824638296</v>
+        <v>0.7942873208127369</v>
       </c>
       <c r="C14">
         <f ca="1">Distances!C14/80</f>
-        <v>1.0944616410468695</v>
+        <v>1.6294875871645178</v>
       </c>
       <c r="D14">
         <f ca="1">Distances!D14/80</f>
-        <v>0.42262185065976865</v>
+        <v>1.3641261484527509</v>
       </c>
       <c r="E14">
         <f ca="1">Distances!E14/80</f>
-        <v>0.82583187324319807</v>
+        <v>0.62091681347083916</v>
       </c>
       <c r="F14">
         <f ca="1">Distances!F14/80</f>
-        <v>1.4353445326427559</v>
+        <v>1.0577842659054091</v>
       </c>
       <c r="G14">
         <f ca="1">Distances!G14/80</f>
-        <v>1.0113879365687108</v>
+        <v>0.61431492078204941</v>
       </c>
       <c r="H14">
         <f ca="1">Distances!H14/80</f>
-        <v>1.812969010588781</v>
+        <v>1.9442922098693505</v>
       </c>
       <c r="I14">
         <f ca="1">Distances!I14/80</f>
-        <v>0.80097209588721996</v>
+        <v>1.4254125695306008</v>
       </c>
       <c r="J14">
         <f ca="1">Distances!J14/80</f>
-        <v>1.3041904478256714</v>
+        <v>1.2966703167342886</v>
       </c>
       <c r="K14">
         <f ca="1">Distances!K14/80</f>
-        <v>1.0783035382625259</v>
+        <v>0.70538216434113676</v>
       </c>
       <c r="L14">
         <f ca="1">Distances!L14/80</f>
-        <v>0.81228740325998672</v>
+        <v>0.92466753377002076</v>
       </c>
       <c r="M14">
         <f ca="1">Distances!M14/80</f>
-        <v>0.62274628687096534</v>
+        <v>1.5384806928883015</v>
       </c>
       <c r="N14">
         <f ca="1">Distances!N14/80</f>
@@ -4526,73 +4526,73 @@
       </c>
       <c r="O14">
         <f ca="1">Distances!O14/80</f>
-        <v>0.44593800616841978</v>
+        <v>1.8505849325348795</v>
       </c>
       <c r="P14">
         <f ca="1">Distances!P14/80</f>
-        <v>0.36397569042791639</v>
+        <v>1.8199043952964751</v>
       </c>
       <c r="Q14">
         <f ca="1">Distances!Q14/80</f>
-        <v>0.5049941754870404</v>
+        <v>0.77310350213466295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">Distances!A15/80</f>
-        <v>0.79800241051925613</v>
+        <v>1.0790242120271478</v>
       </c>
       <c r="B15">
         <f ca="1">Distances!B15/80</f>
-        <v>0.67970152969584341</v>
+        <v>2.4907840735058864</v>
       </c>
       <c r="C15">
         <f ca="1">Distances!C15/80</f>
-        <v>1.3819144983776455</v>
+        <v>0.92326794623144548</v>
       </c>
       <c r="D15">
         <f ca="1">Distances!D15/80</f>
-        <v>0.81081915472141985</v>
+        <v>1.6989717853188158</v>
       </c>
       <c r="E15">
         <f ca="1">Distances!E15/80</f>
-        <v>1.1715460958244097</v>
+        <v>2.0282395973749514</v>
       </c>
       <c r="F15">
         <f ca="1">Distances!F15/80</f>
-        <v>1.6524709885917637</v>
+        <v>1.7004695476037923</v>
       </c>
       <c r="G15">
         <f ca="1">Distances!G15/80</f>
-        <v>1.075817181197489</v>
+        <v>1.3134693326223268</v>
       </c>
       <c r="H15">
         <f ca="1">Distances!H15/80</f>
-        <v>2.0210173791067314</v>
+        <v>1.4734218607457041</v>
       </c>
       <c r="I15">
         <f ca="1">Distances!I15/80</f>
-        <v>1.1802912286855707</v>
+        <v>1.9011648795055422</v>
       </c>
       <c r="J15">
         <f ca="1">Distances!J15/80</f>
-        <v>1.0436227618632568</v>
+        <v>0.5799163358755195</v>
       </c>
       <c r="K15">
         <f ca="1">Distances!K15/80</f>
-        <v>1.4643032373883005</v>
+        <v>1.8503763332929881</v>
       </c>
       <c r="L15">
         <f ca="1">Distances!L15/80</f>
-        <v>0.67342779354249671</v>
+        <v>1.7502153496517505</v>
       </c>
       <c r="M15">
         <f ca="1">Distances!M15/80</f>
-        <v>0.75915292272848689</v>
+        <v>1.2737851920840961</v>
       </c>
       <c r="N15">
         <f ca="1">Distances!N15/80</f>
-        <v>0.44593800616841978</v>
+        <v>1.8505849325348795</v>
       </c>
       <c r="O15">
         <f ca="1">Distances!O15/80</f>
@@ -4600,73 +4600,73 @@
       </c>
       <c r="P15">
         <f ca="1">Distances!P15/80</f>
-        <v>0.48290468997475139</v>
+        <v>1.110857346245594</v>
       </c>
       <c r="Q15">
         <f ca="1">Distances!Q15/80</f>
-        <v>0.79800241051925613</v>
+        <v>1.0790242120271478</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">Distances!A16/80</f>
-        <v>0.33530854538960742</v>
+        <v>1.2390941271555369</v>
       </c>
       <c r="B16">
         <f ca="1">Distances!B16/80</f>
-        <v>0.48500931985523382</v>
+        <v>2.6090383654281557</v>
       </c>
       <c r="C16">
         <f ca="1">Distances!C16/80</f>
-        <v>1.4501774401020389</v>
+        <v>1.8637207524607624</v>
       </c>
       <c r="D16">
         <f ca="1">Distances!D16/80</f>
-        <v>0.75929298103925924</v>
+        <v>2.401077805280623</v>
       </c>
       <c r="E16">
         <f ca="1">Distances!E16/80</f>
-        <v>1.1672492653153246</v>
+        <v>2.2876739140942184</v>
       </c>
       <c r="F16">
         <f ca="1">Distances!F16/80</f>
-        <v>1.1760687722437155</v>
+        <v>2.2620530735897226</v>
       </c>
       <c r="G16">
         <f ca="1">Distances!G16/80</f>
-        <v>0.662946724468094</v>
+        <v>1.5955429644240551</v>
       </c>
       <c r="H16">
         <f ca="1">Distances!H16/80</f>
-        <v>1.5487220788730101</v>
+        <v>2.4422580813609676</v>
       </c>
       <c r="I16">
         <f ca="1">Distances!I16/80</f>
-        <v>0.7471680120730646</v>
+        <v>1.0296124078253597</v>
       </c>
       <c r="J16">
         <f ca="1">Distances!J16/80</f>
-        <v>0.99214806656149168</v>
+        <v>0.92747058442477548</v>
       </c>
       <c r="K16">
         <f ca="1">Distances!K16/80</f>
-        <v>1.3868002135287347</v>
+        <v>2.2051637145636827</v>
       </c>
       <c r="L16">
         <f ca="1">Distances!L16/80</f>
-        <v>0.4744086679471386</v>
+        <v>1.1728212682452805</v>
       </c>
       <c r="M16">
         <f ca="1">Distances!M16/80</f>
-        <v>0.29273682477510515</v>
+        <v>0.36033695899569534</v>
       </c>
       <c r="N16">
         <f ca="1">Distances!N16/80</f>
-        <v>0.36397569042791639</v>
+        <v>1.8199043952964751</v>
       </c>
       <c r="O16">
         <f ca="1">Distances!O16/80</f>
-        <v>0.48290468997475139</v>
+        <v>1.110857346245594</v>
       </c>
       <c r="P16">
         <f ca="1">Distances!P16/80</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="Q16">
         <f ca="1">Distances!Q16/80</f>
-        <v>0.33530854538960742</v>
+        <v>1.2390941271555369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4684,63 +4684,63 @@
       </c>
       <c r="B17">
         <f ca="1">Distances!B17/80</f>
-        <v>0.45753888233793394</v>
+        <v>1.4715605284626663</v>
       </c>
       <c r="C17">
         <f ca="1">Distances!C17/80</f>
-        <v>1.4409393663677306</v>
+        <v>1.064047431308063</v>
       </c>
       <c r="D17">
         <f ca="1">Distances!D17/80</f>
-        <v>0.75235345943360721</v>
+        <v>1.243766733425516</v>
       </c>
       <c r="E17">
         <f ca="1">Distances!E17/80</f>
-        <v>1.1306613837362547</v>
+        <v>1.0750677110307081</v>
       </c>
       <c r="F17">
         <f ca="1">Distances!F17/80</f>
-        <v>0.93100393046591523</v>
+        <v>1.048213784763536</v>
       </c>
       <c r="G17">
         <f ca="1">Distances!G17/80</f>
-        <v>0.61357572473783928</v>
+        <v>0.3564987139960536</v>
       </c>
       <c r="H17">
         <f ca="1">Distances!H17/80</f>
-        <v>1.3085037578751613</v>
+        <v>1.5430408830493594</v>
       </c>
       <c r="I17">
         <f ca="1">Distances!I17/80</f>
-        <v>0.41711571934721714</v>
+        <v>1.3271349596305204</v>
       </c>
       <c r="J17">
         <f ca="1">Distances!J17/80</f>
-        <v>1.2105937431960865</v>
+        <v>0.52731234279195438</v>
       </c>
       <c r="K17">
         <f ca="1">Distances!K17/80</f>
-        <v>1.2791618495292856</v>
+        <v>0.96898016486481209</v>
       </c>
       <c r="L17">
         <f ca="1">Distances!L17/80</f>
-        <v>0.69260491038673577</v>
+        <v>0.93845136058604672</v>
       </c>
       <c r="M17">
         <f ca="1">Distances!M17/80</f>
-        <v>0.27008221902864171</v>
+        <v>1.0709116811981991</v>
       </c>
       <c r="N17">
         <f ca="1">Distances!N17/80</f>
-        <v>0.5049941754870404</v>
+        <v>0.77310350213466295</v>
       </c>
       <c r="O17">
         <f ca="1">Distances!O17/80</f>
-        <v>0.79800241051925613</v>
+        <v>1.0790242120271478</v>
       </c>
       <c r="P17">
         <f ca="1">Distances!P17/80</f>
-        <v>0.33530854538960742</v>
+        <v>1.2390941271555369</v>
       </c>
       <c r="Q17">
         <f>Distances!Q17/80</f>
